--- a/.playwright-mcp/CUI-Maintenance-Backlog-Report-20260120.xlsx
+++ b/.playwright-mcp/CUI-Maintenance-Backlog-Report-20260120.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,17 +428,17 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 06:25:32Z</v>
+        <v>Generated: 2026-01-20 06:32:01Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Total Open Events: 8</v>
+        <v>Total Open Events: 2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Critical: 2 | Urgent: 4 | Routine: 2</v>
+        <v>Critical: 2 | Urgent: 0 | Routine: 0</v>
       </c>
     </row>
     <row r="7">
@@ -560,242 +560,14 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>MX-2024-004</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Communication System</v>
-      </c>
-      <c r="C12" t="str">
-        <v>CRIIS-008</v>
-      </c>
-      <c r="D12" t="str">
-        <v/>
-      </c>
-      <c r="E12" t="str">
-        <v>Software update required per TCTO 2024-15</v>
-      </c>
-      <c r="F12" t="str">
-        <v>Urgent</v>
-      </c>
-      <c r="G12" t="str">
-        <v>TCTO</v>
-      </c>
-      <c r="H12" t="str">
-        <v>Jan 18, 2026</v>
-      </c>
-      <c r="I12" t="str">
-        <v>Field Site Charlie</v>
-      </c>
-      <c r="J12" t="str">
-        <v/>
-      </c>
-      <c r="K12" t="str">
-        <v/>
-      </c>
-      <c r="L12" t="str">
-        <v>No</v>
-      </c>
-    </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>MX-2024-010</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Special Unit 001</v>
-      </c>
-      <c r="C13" t="str">
-        <v>236-002</v>
-      </c>
-      <c r="D13" t="str">
-        <v/>
-      </c>
-      <c r="E13" t="str">
-        <v>Awaiting parts - classified component</v>
-      </c>
-      <c r="F13" t="str">
-        <v>Urgent</v>
-      </c>
-      <c r="G13" t="str">
-        <v>Standard</v>
-      </c>
-      <c r="H13" t="str">
-        <v>Jan 15, 2026</v>
-      </c>
-      <c r="I13" t="str">
-        <v>Secure Facility</v>
-      </c>
-      <c r="J13" t="str">
-        <v/>
-      </c>
-      <c r="K13" t="str">
-        <v/>
-      </c>
-      <c r="L13" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>MX-2024-006</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Laser System</v>
-      </c>
-      <c r="C14" t="str">
-        <v>ACTS-005</v>
-      </c>
-      <c r="D14" t="str">
-        <v/>
-      </c>
-      <c r="E14" t="str">
-        <v>NMCS - awaiting laser diode replacement</v>
-      </c>
-      <c r="F14" t="str">
-        <v>Urgent</v>
-      </c>
-      <c r="G14" t="str">
-        <v>Standard</v>
-      </c>
-      <c r="H14" t="str">
-        <v>Jan 12, 2026</v>
-      </c>
-      <c r="I14" t="str">
-        <v>Field Site Delta</v>
-      </c>
-      <c r="J14" t="str">
-        <v/>
-      </c>
-      <c r="K14" t="str">
-        <v/>
-      </c>
-      <c r="L14" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>MX-2024-002</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Radar Unit 01</v>
-      </c>
-      <c r="C15" t="str">
-        <v>CRIIS-006</v>
-      </c>
-      <c r="D15" t="str">
-        <v/>
-      </c>
-      <c r="E15" t="str">
-        <v>Awaiting replacement parts - power supply module</v>
-      </c>
-      <c r="F15" t="str">
-        <v>Urgent</v>
-      </c>
-      <c r="G15" t="str">
-        <v>Standard</v>
-      </c>
-      <c r="H15" t="str">
-        <v>Jan 9, 2026</v>
-      </c>
-      <c r="I15" t="str">
-        <v>Field Site Bravo</v>
-      </c>
-      <c r="J15" t="str">
-        <v/>
-      </c>
-      <c r="K15" t="str">
-        <v/>
-      </c>
-      <c r="L15" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>MX-2024-007</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Reconnaissance Camera</v>
-      </c>
-      <c r="C16" t="str">
-        <v>ARDS-004</v>
-      </c>
-      <c r="D16" t="str">
-        <v/>
-      </c>
-      <c r="E16" t="str">
-        <v>Lens cleaning and recalibration required</v>
-      </c>
-      <c r="F16" t="str">
-        <v>Routine</v>
-      </c>
-      <c r="G16" t="str">
-        <v>PMI</v>
-      </c>
-      <c r="H16" t="str">
-        <v>Jan 18, 2026</v>
-      </c>
-      <c r="I16" t="str">
-        <v>Depot Beta</v>
-      </c>
-      <c r="J16" t="str">
-        <v/>
-      </c>
-      <c r="K16" t="str">
-        <v/>
-      </c>
-      <c r="L16" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>MX-2024-003</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Sensor Unit B</v>
-      </c>
-      <c r="C17" t="str">
-        <v>CRIIS-003</v>
-      </c>
-      <c r="D17" t="str">
-        <v/>
-      </c>
-      <c r="E17" t="str">
-        <v>Scheduled PMI - 90-day calibration</v>
-      </c>
-      <c r="F17" t="str">
-        <v>Routine</v>
-      </c>
-      <c r="G17" t="str">
-        <v>PMI</v>
-      </c>
-      <c r="H17" t="str">
-        <v>Jan 17, 2026</v>
-      </c>
-      <c r="I17" t="str">
-        <v>Depot Alpha</v>
-      </c>
-      <c r="J17" t="str">
-        <v/>
-      </c>
-      <c r="K17" t="str">
-        <v/>
-      </c>
-      <c r="L17" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
         <v>CUI - CONTROLLED UNCLASSIFIED INFORMATION</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L13"/>
   </ignoredErrors>
 </worksheet>
 </file>